--- a/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
+++ b/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
@@ -19,21 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
-    <t>g0|N|1|1</t>
+    <t>o|L</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g0|N|1|1</t>
+    <t>g0|S|1|0</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g1|N|0|0</t>
+    <t>g1|S|1|0</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g1|N|0|0</t>
+    <t>g2|N|0|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g2|N|0|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g3|N|0|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g3|N|0|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g4|S|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g5|N|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g6|S|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g6|S|1|0</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -41,111 +69,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g3|S|0|1</t>
-  </si>
-  <si>
-    <t>g3|S|0|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g4|S|1|0</t>
-  </si>
-  <si>
-    <t>g4|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g4|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g4|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g7|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g7|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g9|S|1|0</t>
-  </si>
-  <si>
-    <t>g9|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g10|N|0|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g8|S|0|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g8|S|0|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g10|N|0|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g11|N|0|0</t>
-  </si>
-  <si>
-    <t>g11|N|0|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g12|N|1|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g13|N|1|0</t>
-  </si>
-  <si>
-    <t>g13|N|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g15|N|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g15|N|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g16|N|1|1</t>
-  </si>
-  <si>
-    <t>g16|N|1|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g14|N|0|0</t>
-  </si>
-  <si>
-    <t>g14|N|0|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g18|N|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g18|N|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g17|S|0|0</t>
-  </si>
-  <si>
-    <t>g17|S|0|0</t>
+    <t>g7|N|0|1</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1096,7 +1020,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1204,20 +1128,20 @@
       <c r="AH1">
         <v>1</v>
       </c>
-      <c r="AI1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>27</v>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>1</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
       </c>
       <c r="AN1">
         <v>1</v>
@@ -1225,7 +1149,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1272,14 +1196,14 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1287,14 +1211,14 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1326,20 +1250,20 @@
       <c r="AH2">
         <v>0</v>
       </c>
-      <c r="AI2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>29</v>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -1347,10 +1271,10 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1394,11 +1318,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2</v>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1409,14 +1333,14 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>1</v>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1448,20 +1372,20 @@
       <c r="AH3">
         <v>0</v>
       </c>
-      <c r="AI3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>29</v>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -1469,58 +1393,58 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1528,17 +1452,17 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1570,23 +1494,23 @@
       <c r="AH4">
         <v>0</v>
       </c>
-      <c r="AI4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>29</v>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
@@ -1620,47 +1544,47 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1692,23 +1616,23 @@
       <c r="AH5">
         <v>0</v>
       </c>
-      <c r="AI5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>29</v>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
@@ -1721,32 +1645,32 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1757,32 +1681,32 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1800,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1830,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
@@ -1838,37 +1762,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1879,32 +1803,32 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" t="s">
-        <v>9</v>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1922,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1960,37 +1884,37 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2010,41 +1934,41 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" t="s">
-        <v>9</v>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2082,37 +2006,37 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2132,23 +2056,23 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" t="s">
-        <v>9</v>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2204,46 +2128,46 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2255,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2288,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2356,67 +2280,67 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2448,97 +2372,97 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -2570,97 +2494,97 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2691,83 +2615,83 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2790,20 +2714,20 @@
       <c r="AH14">
         <v>0</v>
       </c>
-      <c r="AI14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>23</v>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>1</v>
@@ -2814,52 +2738,52 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2871,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2935,53 +2859,53 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2993,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3058,52 +2982,52 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3115,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3136,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -3179,50 +3103,53 @@
       <c r="A18">
         <v>1</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3236,8 +3163,8 @@
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18" t="s">
-        <v>20</v>
+      <c r="V18">
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3255,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -3299,52 +3226,52 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3358,26 +3285,26 @@
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19" t="s">
-        <v>20</v>
+      <c r="V19">
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3420,38 +3347,44 @@
       <c r="A20">
         <v>1</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3463,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3478,22 +3411,22 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3536,41 +3469,41 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" t="s">
-        <v>11</v>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3585,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3600,22 +3533,22 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3659,40 +3592,40 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -3704,16 +3637,16 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3722,22 +3655,22 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3745,14 +3678,14 @@
       <c r="AD22">
         <v>0</v>
       </c>
-      <c r="AE22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>24</v>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3837,11 +3770,11 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V23" t="s">
-        <v>21</v>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
       </c>
       <c r="W23">
         <v>1</v>

--- a/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
+++ b/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
@@ -19,57 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
   <si>
-    <t>o|L</t>
+    <t>g0|S|1|1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g0|S|1|0</t>
+    <t>g1|N|0|1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g1|S|1|0</t>
+    <t>g2|N|1|0</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g2|N|0|0</t>
+    <t>g4|S|1|1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g2|N|0|0</t>
+    <t>g5|S|0|1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g3|N|0|0</t>
+    <t>g6|N|1|1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g3|N|0|0</t>
+    <t>g6|N|1|1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g4|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g5|N|0|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g6|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g6|S|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>o|R</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g7|N|0|1</t>
+    <t>g6|S|1|1</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1020,7 +1000,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1152,67 +1132,67 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1266,51 +1246,51 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1319,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1388,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
@@ -1422,41 +1402,41 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1510,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
@@ -1544,26 +1524,26 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1623,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -1666,11 +1646,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1678,14 +1658,14 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" t="s">
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1745,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -1762,37 +1742,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1800,14 +1780,14 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
+      <c r="O7" t="s">
+        <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1867,42 +1847,42 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1910,11 +1890,11 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" t="s">
-        <v>8</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1922,11 +1902,11 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1989,42 +1969,42 @@
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2032,11 +2012,11 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2044,11 +2024,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2111,42 +2091,42 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2166,11 +2146,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2233,51 +2213,51 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2288,14 +2268,14 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2339,29 +2319,29 @@
       <c r="AE11">
         <v>0</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
+      <c r="AF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>7</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -2372,25 +2352,25 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2399,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -2420,70 +2400,70 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <v>1</v>
@@ -2521,19 +2501,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -2542,70 +2522,70 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
         <v>1</v>
@@ -2643,19 +2623,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -2664,70 +2644,70 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
         <v>1</v>
@@ -2738,31 +2718,31 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2770,11 +2750,11 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>5</v>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2786,70 +2766,70 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <v>1</v>
@@ -2860,31 +2840,31 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2892,11 +2872,11 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>5</v>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2908,70 +2888,70 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
         <v>1</v>
@@ -2979,34 +2959,34 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -3014,11 +2994,11 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>5</v>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3030,70 +3010,70 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
         <v>1</v>
@@ -3101,34 +3081,34 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -3136,11 +3116,11 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" t="s">
-        <v>5</v>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3152,70 +3132,70 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
         <v>1</v>
@@ -3223,34 +3203,34 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -3258,11 +3238,11 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2</v>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3274,70 +3254,70 @@
         <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19">
         <v>1</v>
@@ -3345,7 +3325,7 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3365,101 +3345,101 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1</v>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20">
         <v>1</v>
@@ -3470,118 +3450,118 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
         <v>1</v>
@@ -3591,119 +3571,119 @@
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
         <v>1</v>

--- a/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
+++ b/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
   <si>
     <t>g0|S|1|1</t>
     <phoneticPr fontId="18"/>
@@ -30,10 +30,6 @@
   </si>
   <si>
     <t>g2|N|1|0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>g4|S|1|1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -49,7 +45,73 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g6|S|1|1</t>
+    <t>g1|N|0|1</t>
+  </si>
+  <si>
+    <t>g4|S|1|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>o|L</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g7|S|1|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g8|S|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g8|S|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>o|L</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g9|S|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g9|S|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g10|N|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g10|N|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g11|N|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g12|N|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g12|N|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g13|N|1|1</t>
+  </si>
+  <si>
+    <t>g13|N|1|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g14|S|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g14|S|1|0</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -999,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1195,13 +1257,13 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1317,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1406,13 +1468,13 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1439,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1528,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1537,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1561,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1603,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -1650,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1659,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1676,14 +1738,14 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6">
-        <v>0</v>
+      <c r="U6" t="s">
+        <v>12</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1725,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -1772,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1781,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1792,8 +1854,8 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>0</v>
+      <c r="S7" t="s">
+        <v>15</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1805,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1847,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1861,7 +1923,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1884,8 +1946,8 @@
       <c r="H8" t="s">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>6</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1914,20 +1976,20 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" t="s">
+        <v>13</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1969,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -1983,31 +2045,31 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2036,8 +2098,8 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>0</v>
+      <c r="S9" t="s">
+        <v>15</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2088,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -2105,31 +2167,31 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2158,8 +2220,8 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
-        <v>0</v>
+      <c r="S10" t="s">
+        <v>15</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2189,34 +2251,34 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>8</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -2227,7 +2289,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2250,8 +2312,8 @@
       <c r="H11" t="s">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>6</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2280,8 +2342,8 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
+      <c r="S11" t="s">
+        <v>15</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2311,34 +2373,34 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -2379,16 +2441,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2406,31 +2468,31 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -2456,11 +2518,11 @@
       <c r="AJ12">
         <v>1</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
+      <c r="AK12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>9</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2501,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2528,61 +2590,61 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2623,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2650,61 +2712,61 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -2745,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2772,61 +2834,61 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -2867,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2894,61 +2956,61 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -2989,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3016,61 +3078,61 @@
         <v>1</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3111,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3138,61 +3200,61 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3233,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3260,61 +3322,61 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>17</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>18</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -3355,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -3382,61 +3444,61 @@
         <v>1</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>17</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>19</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -3504,61 +3566,61 @@
         <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>17</v>
       </c>
       <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>8</v>
       </c>
       <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>19</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
-      <c r="AL21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>11</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -3626,61 +3688,61 @@
         <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>17</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>19</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AK22">
-        <v>1</v>
-      </c>
-      <c r="AL22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>11</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -3783,20 +3845,20 @@
       <c r="AE23">
         <v>1</v>
       </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23">
-        <v>1</v>
-      </c>
-      <c r="AJ23">
-        <v>1</v>
+      <c r="AF23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>21</v>
       </c>
       <c r="AK23">
         <v>1</v>
@@ -3813,7 +3875,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="AJ11:AN19 L10:AN10 A10:K11 L11:AH11 A19:AH19 C18:AH18 A18 A21:AN23 D20:AN20 A20 A12:AH17 AI14 A1:AN9">
+  <conditionalFormatting sqref="AJ11:AN19 L10:AN10 L11:AH11 A19:AH19 C18:AH18 A18 D20:AN20 A20 AI14 J8:AN9 J10:K11 A8:I11 A12:AH17 A1:AN7 A21:AN23">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",A1)))</formula>
     </cfRule>

--- a/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
+++ b/MagnetGame/Project1/Assets/CSV/alpha1-102 - コピー.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>g0|S|1|1</t>
     <phoneticPr fontId="18"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>g12|N|0|1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>g13|N|1|1</t>
   </si>
   <si>
@@ -112,6 +108,14 @@
   </si>
   <si>
     <t>g14|S|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g20|S|1|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g21|N|1|1</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1062,7 +1066,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1626,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1748,13 +1752,13 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1867,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1914,8 +1918,8 @@
       <c r="AL7">
         <v>0</v>
       </c>
-      <c r="AM7">
-        <v>1</v>
+      <c r="AM7" t="s">
+        <v>24</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -2036,8 +2040,8 @@
       <c r="AL8">
         <v>0</v>
       </c>
-      <c r="AM8">
-        <v>1</v>
+      <c r="AM8" t="s">
+        <v>24</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -2150,16 +2154,16 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>24</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -2233,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2274,11 +2278,11 @@
       <c r="AJ10">
         <v>1</v>
       </c>
-      <c r="AK10" t="s">
-        <v>8</v>
+      <c r="AK10">
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -2355,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2396,11 +2400,11 @@
       <c r="AJ11">
         <v>1</v>
       </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
+      <c r="AK11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>23</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -2477,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2519,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="AK12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2599,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2721,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2762,11 +2766,11 @@
       <c r="AJ14">
         <v>0</v>
       </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
+      <c r="AK14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>9</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -2843,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2965,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3087,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3209,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -3227,28 +3231,28 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3334,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3348,8 +3352,8 @@
       <c r="AB19">
         <v>0</v>
       </c>
-      <c r="AC19" t="s">
-        <v>18</v>
+      <c r="AC19">
+        <v>0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -3370,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -3456,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3470,8 +3474,8 @@
       <c r="AB20">
         <v>0</v>
       </c>
-      <c r="AC20" t="s">
-        <v>19</v>
+      <c r="AC20">
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3492,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -3578,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3592,8 +3596,8 @@
       <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AC21" t="s">
-        <v>19</v>
+      <c r="AC21">
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3700,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="s">
         <v>17</v>
@@ -3715,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3846,19 +3850,19 @@
         <v>1</v>
       </c>
       <c r="AF23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH23" t="s">
         <v>20</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AI23" t="s">
         <v>20</v>
       </c>
-      <c r="AH23" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>21</v>
-      </c>
       <c r="AJ23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23">
         <v>1</v>
@@ -3875,7 +3879,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="AJ11:AN19 L10:AN10 L11:AH11 A19:AH19 C18:AH18 A18 D20:AN20 A20 AI14 J8:AN9 J10:K11 A8:I11 A12:AH17 A1:AN7 A21:AN23">
+  <conditionalFormatting sqref="J9:W11 A19:AH19 C18:W18 A18 D20:AN20 A20 AI14 J8:AN8 A8:I11 A12:W17 A1:AN7 A21:AN23 Y11:AH18 Y9:AN10 X9:X18 AJ11:AN19">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",A1)))</formula>
     </cfRule>
